--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf17-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf17-Fgfr2.xlsx
@@ -540,40 +540,40 @@
         <v>0.177754</v>
       </c>
       <c r="I2">
-        <v>0.129311749608618</v>
+        <v>0.6594814792829158</v>
       </c>
       <c r="J2">
-        <v>0.129311749608618</v>
+        <v>0.6594814792829158</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4871643333333333</v>
+        <v>0.05601</v>
       </c>
       <c r="N2">
-        <v>1.461493</v>
+        <v>0.16803</v>
       </c>
       <c r="O2">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="P2">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="Q2">
-        <v>0.02886513630244444</v>
+        <v>0.00331866718</v>
       </c>
       <c r="R2">
-        <v>0.259786226722</v>
+        <v>0.02986800462</v>
       </c>
       <c r="S2">
-        <v>0.02475619740889255</v>
+        <v>0.01787556047731779</v>
       </c>
       <c r="T2">
-        <v>0.02475619740889255</v>
+        <v>0.01787556047731779</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.177754</v>
       </c>
       <c r="I3">
-        <v>0.129311749608618</v>
+        <v>0.6594814792829158</v>
       </c>
       <c r="J3">
-        <v>0.129311749608618</v>
+        <v>0.6594814792829158</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>1.864751</v>
       </c>
       <c r="N3">
-        <v>5.594252999999999</v>
+        <v>5.594253</v>
       </c>
       <c r="O3">
-        <v>0.7328098752209856</v>
+        <v>0.902427539668559</v>
       </c>
       <c r="P3">
-        <v>0.7328098752209857</v>
+        <v>0.9024275396685592</v>
       </c>
       <c r="Q3">
-        <v>0.1104889830846666</v>
+        <v>0.1104889830846667</v>
       </c>
       <c r="R3">
-        <v>0.9944008477619999</v>
+        <v>0.994400847762</v>
       </c>
       <c r="S3">
-        <v>0.09476092709529867</v>
+        <v>0.5951342488062635</v>
       </c>
       <c r="T3">
-        <v>0.09476092709529868</v>
+        <v>0.5951342488062635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.177754</v>
       </c>
       <c r="I4">
-        <v>0.129311749608618</v>
+        <v>0.6594814792829158</v>
       </c>
       <c r="J4">
-        <v>0.129311749608618</v>
+        <v>0.6594814792829158</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1927433333333333</v>
+        <v>0.145611</v>
       </c>
       <c r="N4">
-        <v>0.57823</v>
+        <v>0.436833</v>
       </c>
       <c r="O4">
-        <v>0.07574427794900063</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="P4">
-        <v>0.07574427794900064</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="Q4">
-        <v>0.01142029949111111</v>
+        <v>0.008627645898000001</v>
       </c>
       <c r="R4">
-        <v>0.10278269542</v>
+        <v>0.077648813082</v>
       </c>
       <c r="S4">
-        <v>0.009794625104426732</v>
+        <v>0.04647166999933441</v>
       </c>
       <c r="T4">
-        <v>0.009794625104426734</v>
+        <v>0.04647166999933441</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.398954</v>
+        <v>0.030594</v>
       </c>
       <c r="H5">
-        <v>1.196862</v>
+        <v>0.091782</v>
       </c>
       <c r="I5">
-        <v>0.8706882503913821</v>
+        <v>0.3405185207170842</v>
       </c>
       <c r="J5">
-        <v>0.8706882503913821</v>
+        <v>0.3405185207170842</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.4871643333333333</v>
+        <v>0.05601</v>
       </c>
       <c r="N5">
-        <v>1.461493</v>
+        <v>0.16803</v>
       </c>
       <c r="O5">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="P5">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="Q5">
-        <v>0.1943561594406667</v>
+        <v>0.00171356994</v>
       </c>
       <c r="R5">
-        <v>1.749205434966</v>
+        <v>0.01542212946</v>
       </c>
       <c r="S5">
-        <v>0.166689649421121</v>
+        <v>0.009229917142394439</v>
       </c>
       <c r="T5">
-        <v>0.1666896494211211</v>
+        <v>0.009229917142394441</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.398954</v>
+        <v>0.030594</v>
       </c>
       <c r="H6">
-        <v>1.196862</v>
+        <v>0.091782</v>
       </c>
       <c r="I6">
-        <v>0.8706882503913821</v>
+        <v>0.3405185207170842</v>
       </c>
       <c r="J6">
-        <v>0.8706882503913821</v>
+        <v>0.3405185207170842</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>1.864751</v>
       </c>
       <c r="N6">
-        <v>5.594252999999999</v>
+        <v>5.594253</v>
       </c>
       <c r="O6">
-        <v>0.7328098752209856</v>
+        <v>0.902427539668559</v>
       </c>
       <c r="P6">
-        <v>0.7328098752209857</v>
+        <v>0.9024275396685592</v>
       </c>
       <c r="Q6">
-        <v>0.743949870454</v>
+        <v>0.057050192094</v>
       </c>
       <c r="R6">
-        <v>6.695548834086</v>
+        <v>0.513451728846</v>
       </c>
       <c r="S6">
-        <v>0.638048948125687</v>
+        <v>0.3072932908622955</v>
       </c>
       <c r="T6">
-        <v>0.6380489481256871</v>
+        <v>0.3072932908622956</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.398954</v>
+        <v>0.030594</v>
       </c>
       <c r="H7">
-        <v>1.196862</v>
+        <v>0.091782</v>
       </c>
       <c r="I7">
-        <v>0.8706882503913821</v>
+        <v>0.3405185207170842</v>
       </c>
       <c r="J7">
-        <v>0.8706882503913821</v>
+        <v>0.3405185207170842</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1927433333333333</v>
+        <v>0.145611</v>
       </c>
       <c r="N7">
-        <v>0.57823</v>
+        <v>0.436833</v>
       </c>
       <c r="O7">
-        <v>0.07574427794900063</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="P7">
-        <v>0.07574427794900064</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="Q7">
-        <v>0.07689572380666668</v>
+        <v>0.004454822934</v>
       </c>
       <c r="R7">
-        <v>0.6920615142600001</v>
+        <v>0.040093406406</v>
       </c>
       <c r="S7">
-        <v>0.06594965284457389</v>
+        <v>0.02399531271239416</v>
       </c>
       <c r="T7">
-        <v>0.06594965284457391</v>
+        <v>0.02399531271239416</v>
       </c>
     </row>
   </sheetData>
